--- a/packages/meditrak-server/src/tests/testData/surveyResponses/valid.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveyResponses/valid.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edwin/Documents/Git/meditrak-server/src/tests/testData/surveyResponses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edwin/Documents/Git/tupaia/packages/meditrak-server/src/tests/testData/surveyResponses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF844F8-3105-0647-A350-F7315F81E7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BEE6EE-C435-A342-9557-F890D419385B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic Clinic Data..." sheetId="1" r:id="rId1"/>
+    <sheet name="Test Survey" sheetId="1" r:id="rId1"/>
     <sheet name="Facility Fundamen..." sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateCount="1" iterateDelta="1E-4"/>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/packages/meditrak-server/src/tests/testData/surveyResponses/valid.xlsx
+++ b/packages/meditrak-server/src/tests/testData/surveyResponses/valid.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edwin/Documents/Git/tupaia/packages/meditrak-server/src/tests/testData/surveyResponses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Projects\tupaia\packages\meditrak-server\src\tests\testData\surveyResponses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BEE6EE-C435-A342-9557-F890D419385B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D703CAE-591D-4CD5-A751-8FBEB0A58E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Survey" sheetId="1" r:id="rId1"/>
-    <sheet name="Facility Fundamen..." sheetId="2" r:id="rId2"/>
+    <sheet name="Facility Fundamentals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateCount="1" iterateDelta="1E-4"/>
   <extLst>
@@ -960,20 +960,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.296875" customWidth="1"/>
     <col min="2" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -1224,16 +1224,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>157</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>164</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>165</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>167</v>
       </c>
